--- a/dtw_distances.xlsx
+++ b/dtw_distances.xlsx
@@ -450,7 +450,7 @@
         <v>30</v>
       </c>
       <c r="B2" t="n">
-        <v>36.28271240417826</v>
+        <v>33.20910514338586</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>60</v>
       </c>
       <c r="B3" t="n">
-        <v>52.71184482104406</v>
+        <v>53.21408857820801</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>90</v>
       </c>
       <c r="B4" t="n">
-        <v>46.68332849736598</v>
+        <v>47.01872546623743</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>120</v>
       </c>
       <c r="B5" t="n">
-        <v>12.51077162297805</v>
+        <v>12.39065306104825</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>150</v>
       </c>
       <c r="B6" t="n">
-        <v>23.92146480006672</v>
+        <v>24.23827772494498</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>180</v>
       </c>
       <c r="B7" t="n">
-        <v>27.89985894948838</v>
+        <v>28.05755565524552</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>210</v>
       </c>
       <c r="B8" t="n">
-        <v>15.1881791264188</v>
+        <v>15.27683926391145</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>240</v>
       </c>
       <c r="B9" t="n">
-        <v>39.35379613694894</v>
+        <v>39.35517938272335</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>270</v>
       </c>
       <c r="B10" t="n">
-        <v>57.00610028259532</v>
+        <v>56.63395114808458</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>300</v>
       </c>
       <c r="B11" t="n">
-        <v>46.5105037459101</v>
+        <v>47.97807526984668</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>330</v>
       </c>
       <c r="B12" t="n">
-        <v>37.72881256610839</v>
+        <v>36.87324544728157</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>360</v>
       </c>
       <c r="B13" t="n">
-        <v>36.80351659752854</v>
+        <v>36.44275538414318</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>390</v>
       </c>
       <c r="B14" t="n">
-        <v>38.468914630402</v>
+        <v>38.79695809124748</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>420</v>
       </c>
       <c r="B15" t="n">
-        <v>31.14597047511546</v>
+        <v>32.11452476842023</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>450</v>
       </c>
       <c r="B16" t="n">
-        <v>53.15165953716303</v>
+        <v>52.21692088170595</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>480</v>
       </c>
       <c r="B17" t="n">
-        <v>47.77670652467873</v>
+        <v>47.608995249485</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>510</v>
       </c>
       <c r="B18" t="n">
-        <v>37.73016248803116</v>
+        <v>37.61264564129975</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>540</v>
       </c>
       <c r="B19" t="n">
-        <v>36.09488307877705</v>
+        <v>36.18134549804342</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>570</v>
       </c>
       <c r="B20" t="n">
-        <v>21.80761132254677</v>
+        <v>21.85604948407361</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>600</v>
       </c>
       <c r="B21" t="n">
-        <v>32.31041604130704</v>
+        <v>32.3049813498648</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>630</v>
       </c>
       <c r="B22" t="n">
-        <v>23.37011004217844</v>
+        <v>23.30931070458</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>660</v>
       </c>
       <c r="B23" t="n">
-        <v>34.04759385622276</v>
+        <v>33.97995435374995</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>690</v>
       </c>
       <c r="B24" t="n">
-        <v>43.5866149668421</v>
+        <v>43.20928706522242</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>720</v>
       </c>
       <c r="B25" t="n">
-        <v>43.7514980782553</v>
+        <v>44.05864074317004</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>750</v>
       </c>
       <c r="B26" t="n">
-        <v>59.18796184281776</v>
+        <v>58.86275828910073</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>780</v>
       </c>
       <c r="B27" t="n">
-        <v>50.36045801092634</v>
+        <v>50.23546503960885</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>810</v>
       </c>
       <c r="B28" t="n">
-        <v>45.7378179363028</v>
+        <v>44.58961303098328</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>840</v>
       </c>
       <c r="B29" t="n">
-        <v>49.092824512776</v>
+        <v>49.37927176949226</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>870</v>
       </c>
       <c r="B30" t="n">
-        <v>39.53241174201134</v>
+        <v>39.78080138332355</v>
       </c>
     </row>
   </sheetData>
